--- a/HC_11.1_with_PV_data.xlsx
+++ b/HC_11.1_with_PV_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\OneDrive\Documents\Python II\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B85DF-9A12-4698-B8CD-6EBAF648E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37FD34-974A-4EC8-B0AE-A530658D35C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,28 +22,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Total U.S.a</t>
-  </si>
-  <si>
-    <t>Any household energy insecurityb</t>
-  </si>
-  <si>
-    <t>Reducing or forgoing food or medicine to pay energy costs</t>
-  </si>
-  <si>
-    <t>Leaving home at unhealthy temperature</t>
-  </si>
-  <si>
-    <t>Receiving disconnect or delivery stop notice</t>
-  </si>
-  <si>
-    <t>Unable to use heating equipmentc</t>
-  </si>
-  <si>
-    <t>Unable to use air-conditioning equipmentd</t>
+    <t>unnamed:_0</t>
+  </si>
+  <si>
+    <t>total_u.s.a</t>
+  </si>
+  <si>
+    <t>reducing_or_forgoing_food_or_medicine_to_pay_energy_costs</t>
+  </si>
+  <si>
+    <t>leaving_home_at_unhealthy_temperature</t>
+  </si>
+  <si>
+    <t>receiving_disconnect_or_delivery_stop_notice</t>
+  </si>
+  <si>
+    <t>unable_to_use_heating_equipmentc</t>
+  </si>
+  <si>
+    <t>unable_to_use_air-conditioning_equipmentd</t>
   </si>
   <si>
     <t>region</t>
@@ -441,6 +438,9 @@
 j Rent includes households that occupy their primary housing units without paying rent.
 Q = Data withheld because either the relative standard error (RSE) was greater than 50% or fewer than 10 households were in the reporting sample.
 N = No households in reporting sample.</t>
+  </si>
+  <si>
+    <t>any_household_energy_insecurity</t>
   </si>
 </sst>
 </file>
@@ -806,14 +806,10 @@
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -823,51 +819,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>123.53</v>
@@ -893,12 +889,12 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>21.92</v>
@@ -922,7 +918,7 @@
         <v>0.84</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>94</v>
@@ -936,7 +932,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>5.88</v>
@@ -960,10 +956,10 @@
         <v>0.19</v>
       </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
       <c r="N5">
         <v>41</v>
@@ -977,7 +973,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>16.04</v>
@@ -1001,10 +997,10 @@
         <v>0.65</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>53</v>
@@ -1018,7 +1014,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>27.04</v>
@@ -1042,7 +1038,7 @@
         <v>1.04</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>152</v>
@@ -1056,7 +1052,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>18.55</v>
@@ -1080,10 +1076,10 @@
         <v>0.74</v>
       </c>
       <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
       </c>
       <c r="N8">
         <v>56</v>
@@ -1097,7 +1093,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8.5</v>
@@ -1121,10 +1117,10 @@
         <v>0.3</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>96</v>
@@ -1138,7 +1134,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>46.84</v>
@@ -1162,7 +1158,7 @@
         <v>3.11</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>156</v>
@@ -1176,7 +1172,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>24.84</v>
@@ -1200,10 +1196,10 @@
         <v>1.5</v>
       </c>
       <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
       </c>
       <c r="N11">
         <v>128</v>
@@ -1217,7 +1213,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>7.38</v>
@@ -1241,10 +1237,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -1258,7 +1254,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>14.62</v>
@@ -1282,10 +1278,10 @@
         <v>1.03</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>24</v>
@@ -1299,7 +1295,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>27.72</v>
@@ -1323,7 +1319,7 @@
         <v>1.36</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>99</v>
@@ -1337,7 +1333,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>9.2200000000000006</v>
@@ -1361,10 +1357,10 @@
         <v>0.45</v>
       </c>
       <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
         <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
       </c>
       <c r="N15">
         <v>28</v>
@@ -1378,7 +1374,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>4.62</v>
@@ -1402,15 +1398,15 @@
         <v>0.18</v>
       </c>
       <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
         <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>4.5999999999999996</v>
@@ -1434,15 +1430,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
         <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>18.510000000000002</v>
@@ -1466,10 +1462,10 @@
         <v>0.9</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>71</v>
@@ -1483,12 +1479,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>100.44</v>
@@ -1514,7 +1510,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>89.24</v>
@@ -1540,7 +1536,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>11.2</v>
@@ -1566,7 +1562,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>23.09</v>
@@ -1592,12 +1588,12 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>42.5</v>
@@ -1623,7 +1619,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>36.79</v>
@@ -1649,7 +1645,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>15.06</v>
@@ -1675,7 +1671,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>22.31</v>
@@ -1701,7 +1697,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>6.87</v>
@@ -1727,12 +1723,12 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>77.069999999999993</v>
@@ -1758,7 +1754,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>7.45</v>
@@ -1784,7 +1780,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>9.34</v>
@@ -1810,7 +1806,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>22.84</v>
@@ -1836,7 +1832,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>6.83</v>
@@ -1862,12 +1858,12 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>20.260000000000002</v>
@@ -1893,7 +1889,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>12.48</v>
@@ -1919,7 +1915,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>12.76</v>
@@ -1945,7 +1941,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>18.34</v>
@@ -1971,7 +1967,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>16.3</v>
@@ -1997,7 +1993,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>17.16</v>
@@ -2023,7 +2019,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>16.16</v>
@@ -2049,7 +2045,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>5.53</v>
@@ -2075,7 +2071,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>4.5599999999999996</v>
@@ -2101,12 +2097,12 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>62.71</v>
@@ -2132,7 +2128,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>42.57</v>
@@ -2158,7 +2154,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>4.93</v>
@@ -2184,7 +2180,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>5.21</v>
@@ -2210,7 +2206,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>2.25</v>
@@ -2236,33 +2232,33 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>5.79</v>
@@ -2288,12 +2284,12 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>74.42</v>
@@ -2319,7 +2315,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>16.13</v>
@@ -2345,7 +2341,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>9.2899999999999991</v>
@@ -2371,7 +2367,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>1.06</v>
@@ -2386,18 +2382,18 @@
         <v>0.1</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59">
         <v>7.65</v>
@@ -2423,7 +2419,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>3.49</v>
@@ -2449,7 +2445,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>3.03</v>
@@ -2475,7 +2471,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62">
         <v>1.94</v>
@@ -2501,7 +2497,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>0.74</v>
@@ -2513,21 +2509,21 @@
         <v>0.11</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>5.79</v>
@@ -2553,12 +2549,12 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>109.51</v>
@@ -2584,7 +2580,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>14.02</v>
@@ -2610,12 +2606,12 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>82.69</v>
@@ -2641,7 +2637,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>1.76</v>
@@ -2667,7 +2663,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>21.43</v>
@@ -2693,7 +2689,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>2.68</v>
@@ -2719,7 +2715,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.95</v>
@@ -2737,7 +2733,7 @@
         <v>0.09</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73">
         <v>0.09</v>
@@ -2745,7 +2741,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>14.02</v>
@@ -2771,12 +2767,12 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>34.340000000000003</v>
@@ -2802,7 +2798,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>64.27</v>
@@ -2828,7 +2824,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>21.29</v>
@@ -2854,7 +2850,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>3.63</v>
@@ -2880,12 +2876,12 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>43.51</v>
@@ -2911,7 +2907,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>77.95</v>
@@ -2937,7 +2933,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>2.0699999999999998</v>
@@ -2955,7 +2951,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H83">
         <v>7.0000000000000007E-2</v>
@@ -2963,12 +2959,12 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>33.590000000000003</v>
@@ -2994,7 +2990,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>45.31</v>
@@ -3020,7 +3016,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>18.27</v>
@@ -3046,7 +3042,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>15.56</v>
@@ -3072,7 +3068,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>6.44</v>
@@ -3098,7 +3094,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>4.37</v>
@@ -3124,12 +3120,12 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>4.4800000000000004</v>
@@ -3155,7 +3151,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>4.01</v>
@@ -3181,7 +3177,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>10.25</v>
@@ -3207,7 +3203,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>24.07</v>
@@ -3233,7 +3229,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>19.61</v>
@@ -3259,7 +3255,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>27.71</v>
@@ -3285,7 +3281,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>16.54</v>
@@ -3311,7 +3307,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>16.86</v>
@@ -3337,12 +3333,12 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>112.7</v>
@@ -3368,7 +3364,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>4.34</v>
@@ -3394,7 +3390,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>0.72</v>
@@ -3406,21 +3402,21 @@
         <v>0.13</v>
       </c>
       <c r="E103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>5.77</v>
@@ -3446,12 +3442,12 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>52.11</v>
@@ -3477,7 +3473,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>71.42</v>
@@ -3503,12 +3499,12 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>34.58</v>
@@ -3534,7 +3530,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110">
         <v>88.95</v>
@@ -3560,12 +3556,12 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112">
         <v>13.99</v>
@@ -3591,7 +3587,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113">
         <v>109.54</v>
@@ -3617,12 +3613,12 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115">
         <v>99.99</v>
@@ -3648,7 +3644,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <v>12.04</v>
@@ -3674,7 +3670,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>87.94</v>
@@ -3700,7 +3696,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <v>12.95</v>
@@ -3726,7 +3722,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>0.63</v>
@@ -3744,15 +3740,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>12.32</v>
@@ -3778,7 +3774,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>6.06</v>
@@ -3804,7 +3800,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>1.08</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>0.35</v>
@@ -3842,21 +3838,21 @@
         <v>0.12</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>3.1</v>
@@ -3882,12 +3878,12 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>82.92</v>
@@ -3913,7 +3909,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>40.61</v>
@@ -3939,10 +3935,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
